--- a/biology/Médecine/Andreas_Eenfeldt/Andreas_Eenfeldt.xlsx
+++ b/biology/Médecine/Andreas_Eenfeldt/Andreas_Eenfeldt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Andreas Eenfeldt est un médecin suédois spécialisé dans la médecine familiale[1]. Il est partisan des régimes à faible teneur en glucides[2]. Eenfeldt est né en 1972 et est diplômé de l’école de médecine de l'université d’Uppsala. Quelques années plus tard, il a lancé le site DietDoctor.com qui se concentre sur les régimes à faible teneur en glucides. Il s’est fait connaître lors d’un débat animé sur les bienfaits de ces régimes[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andreas Eenfeldt est un médecin suédois spécialisé dans la médecine familiale. Il est partisan des régimes à faible teneur en glucides. Eenfeldt est né en 1972 et est diplômé de l’école de médecine de l'université d’Uppsala. Quelques années plus tard, il a lancé le site DietDoctor.com qui se concentre sur les régimes à faible teneur en glucides. Il s’est fait connaître lors d’un débat animé sur les bienfaits de ces régimes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Jeunesse et éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Andreas Eenfeldt est né en 1972[3]. Il obtient un diplôme en médecine à l’université d’Uppsala[3],[4] Après avoir obtenu son diplôme, Eenfeldt s’est intéressé au poker et a finalement gagné plus d’argent avec le poker en ligne qu’en exerçant la médecine[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andreas Eenfeldt est né en 1972. Il obtient un diplôme en médecine à l’université d’Uppsala, Après avoir obtenu son diplôme, Eenfeldt s’est intéressé au poker et a finalement gagné plus d’argent avec le poker en ligne qu’en exerçant la médecine.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au départ, Eenfeldt a encouragé les patients en surpoids à suivre les lignes directrices traditionnelles de la diététique, qu’il avait apprises à l’université, mais son opinion a changé au fil du temps[3],[6] En 2007, il a créé un blog sur les régimes pauvres en glucides, sous le nom de "Kostdoktorn"[5],[7].
-En quelques années, Kostdoktorn (qui s’appelle désormais dietdoctor) est devenu le site de santé le plus visité en Suède[3],[8]. Il a créé une version anglaise en 2011[7]. En 2015, Eenfeldt a abandonné son métier de médecin pour se consacrer au site[1]. À partir de 2019, le site web a généré l’équivalent de 50 millions de dollars en couronnes suédoises, par an, avec 500 000 visiteurs par jour[5]. À partir de 2019, le site employait 30 personnes et était en grande partie la propriété d’Eenfeldt[5].
-Eenfeldt est devenu un personnage public et un commentateur lors d’un débat animé concernant les régimes pauvres en glucides[3].En 2012, il a publié un livre intitulé "Révolution alimentaire pauvre en glucides et riches en graisse : conseils et recettes pour améliorer votre santé et maigrir"[3],[9]. Il est devenu un best-seller en Suède et il a été traduit en huit langues[7].
-Les régimes pauvres en glucides et riches en graisse que défend Eenfeldt sont controversés et ne sont pas soutenus par les lignes directrices diététiques officielles[10]. Eenfeldt affirme que ces lignes traditionnelles ne sont pas soutenues par une bonne science[10]. Un article paru dans Science as Culture dit que les partisans des régimes pauvres en glucides comme Eenfeldt, exploitent des anecdotes de patients qui se sont retrouvés en meilleure santé après avoir adopté ces régimes[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au départ, Eenfeldt a encouragé les patients en surpoids à suivre les lignes directrices traditionnelles de la diététique, qu’il avait apprises à l’université, mais son opinion a changé au fil du temps, En 2007, il a créé un blog sur les régimes pauvres en glucides, sous le nom de "Kostdoktorn",.
+En quelques années, Kostdoktorn (qui s’appelle désormais dietdoctor) est devenu le site de santé le plus visité en Suède,. Il a créé une version anglaise en 2011. En 2015, Eenfeldt a abandonné son métier de médecin pour se consacrer au site. À partir de 2019, le site web a généré l’équivalent de 50 millions de dollars en couronnes suédoises, par an, avec 500 000 visiteurs par jour. À partir de 2019, le site employait 30 personnes et était en grande partie la propriété d’Eenfeldt.
+Eenfeldt est devenu un personnage public et un commentateur lors d’un débat animé concernant les régimes pauvres en glucides.En 2012, il a publié un livre intitulé "Révolution alimentaire pauvre en glucides et riches en graisse : conseils et recettes pour améliorer votre santé et maigrir",. Il est devenu un best-seller en Suède et il a été traduit en huit langues.
+Les régimes pauvres en glucides et riches en graisse que défend Eenfeldt sont controversés et ne sont pas soutenus par les lignes directrices diététiques officielles. Eenfeldt affirme que ces lignes traditionnelles ne sont pas soutenues par une bonne science. Un article paru dans Science as Culture dit que les partisans des régimes pauvres en glucides comme Eenfeldt, exploitent des anecdotes de patients qui se sont retrouvés en meilleure santé après avoir adopté ces régimes.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eenfeldt vit à Karlstad, Suède[9] avec sa partenaire et leurs deux filles[3],[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eenfeldt vit à Karlstad, Suède avec sa partenaire et leurs deux filles,.
 </t>
         </is>
       </c>
